--- a/测试用例编写/注册功能测试.xlsx
+++ b/测试用例编写/注册功能测试.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究生\3-校招测试\3-测试基础\4-接口测试\3-TPshopUI自动化测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究生\3-校招测试\03-测试基础\9-UI自动化测试\3-TPshopUI自动化测试实战\测试用例编写\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC685BE8-C6B3-498F-A3F0-74CCE1D4DD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D385FFE9-C072-49D5-B65A-E75907616A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="816" windowWidth="17280" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
   <si>
     <t>用例编号ID</t>
   </si>
@@ -102,21 +102,73 @@
     <t>注册</t>
   </si>
   <si>
-    <t>注册成功(手机号注册+密码6位纯字母+非必填项为空+其他项都正确)</t>
-  </si>
-  <si>
     <t>打开注册页</t>
   </si>
   <si>
-    <t>1.输入右侧数据
-2.勾选"我已阅读并同意"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手机号:
-密码
-验证码
-确认密码
+    <t>P0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13123456789
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abcdef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abcdef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>注册成功
@@ -124,28 +176,1747 @@
 a)前台：弹框提示注册成功；跳转到首页； 显示登录状态
 b)后台：会员列表新增一条记录
 c)数据库：tp_users表增加一条数据</t>
-  </si>
-  <si>
-    <t>注册成功(手机号注册,非必填项为空.其他项都正确)</t>
-  </si>
-  <si>
-    <t>注册成功(手机号注册)</t>
-  </si>
-  <si>
-    <t>注册成功(邮箱注册)</t>
-  </si>
-  <si>
-    <t>注册失败(手机号第一位非1)</t>
-  </si>
-  <si>
-    <t>手机号:234555667</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功(正确手机号+密码6位纯字母+非必填项为空+其他项都正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功(正确手机号+密码11位纯数字+非必填项为空+其他项都正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.输入右侧数据
+2.勾选"我已阅读并同意"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.点击“注册”</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.输入右侧数据
+2.勾选"我已阅读并同意"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.点击“注册”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13223456789
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12345678912</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12345678912</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>注册成功(正确手机号+密码16位纯字符+非必填项为空+其他项都正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13323456789
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@@@@@@@@@@@@@@@@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@@@@@@@@@@@@@@@@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>注册成功(正确手机号+密码11位字母、数字、字符+非必填项为空+其他项都正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13423456789
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12345abcde@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12345abcde@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>注册成功(正确手机号+密码11位字母、数字、字符+非必填项正确+其他项都正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13523456789
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12345abcde@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12345abcde@
+推荐人：17805591586</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>注册失败(手机号为空+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+现象:
+弹框提示“请用手机号或邮箱注册”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>注册失败(手机号第一位非1的11位自然数+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：空
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123123
+推荐人：空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(手机号第二位小于等于2的11位自然数+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tp_register_021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>注册失败(手机号非11位自然数+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：1312345678
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123123
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：11234567891
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123123
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(手机号已注册+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：17805591586
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123123
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(手机号11位非自然数+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：1312345678a
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123123
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+现象:
+弹框提示“账号已存在”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13987654321
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12312</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">12312
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+现象:
+弹框提示“密码为6-16位大小写英文字母、数字或符号组合”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(未注册的正确手机号+17位纯字母密码+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(未注册的正确手机号+5位纯数字密码+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13997654321
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abcdefghijklmnopq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">abcdefghijklmnopq
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(未注册的正确手机号+6位含中文密码+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(未注册的正确手机号+密码为空+非必填项正确+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13999654321
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12312你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">12312你
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13999954321
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+推荐人：17805591586
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+现象:
+弹框提示“请输入用户名或密码”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(验证码错误+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13999954321
+验证码：8889</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123123
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+现象:
+弹框提示“图像验证码错误”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(验证码为空+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过；点击注册没反应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13999954321
+验证码：空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123123
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+现象:
+弹框提示“图像验证码不能为空”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(确认密码为空+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13999954321
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">空
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+现象:
+弹框提示“两次输入密码不一致”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(确认密码不一致+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13999954321
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123123
+确认密码：123321
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(非必填项为未注册用户+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13999954321
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123123
+确认密码：123123
+推荐人：13333334444
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+现象:
+弹框提示“推荐人不存在”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败(未勾选“我已阅读并同意”+非必填项为空+其他正确)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+现象:
+点击注册没反应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.输入右侧数据
+2.不勾选"我已阅读并同意"
+4.点击“注册”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：13999954321
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123123
+确认密码：123123
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机号：23234567891
+验证码：8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+确认密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123123
+推荐人：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过；注册成功了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass（测试通过）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +1975,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +2000,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +2034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,8 +2069,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,26 +2356,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22886C6A-161C-4B76-9D3F-C5B17226DC81}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="30.125" style="11" customWidth="1"/>
     <col min="6" max="6" width="17" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="24.75" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +2414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -673,53 +2450,613 @@
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I4" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="D8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
-        <v>30</v>
+    <row r="9" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="12" t="s">
-        <v>31</v>
+    <row r="10" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="12" t="s">
-        <v>32</v>
+    <row r="11" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="11" t="s">
+    <row r="12" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>34</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
